--- a/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/TestReportSummary.xlsx
+++ b/Processes/RPATask1-ChartStringProformaDetail/Test_Framework/TestReportSummary.xlsx
@@ -15,12 +15,12 @@
     <sheet name="ReportResults" sheetId="2" r:id="rId1"/>
     <sheet name="SummaryResults" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Invalid Proforma Data</t>
   </si>
@@ -53,6 +53,27 @@
   </si>
   <si>
     <t>Expected Step</t>
+  </si>
+  <si>
+    <t>No RM number found in email</t>
+  </si>
+  <si>
+    <t>RM number not a 10 digit code</t>
+  </si>
+  <si>
+    <t>Extra digits: in OUC: Fac, Sch, Sec, Site. UA: Opal, Site, Fund, Func</t>
+  </si>
+  <si>
+    <t>Bad char: in OUC: Fac, Sch, Sec, Site. UA: Opal, Site, Fund, Func</t>
+  </si>
+  <si>
+    <t>Blank Field: in OUC: Fac, Sch, Sec, Site. UA: Opal, Site, Fund, Func</t>
+  </si>
+  <si>
+    <t>Valid form with 60 character short description</t>
+  </si>
+  <si>
+    <t>Blank Field: in OUC: Fac, Sec. UA: Opal, Fund</t>
   </si>
 </sst>
 </file>
@@ -401,20 +422,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -443,49 +464,109 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>2019002263</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2019002264</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>2018001377</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2017003329</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>2019003060</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2019002263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D25">
+        <v>2019002264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>2018001377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2017003329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2018001996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>2019001883</v>
       </c>
     </row>
